--- a/data/trans_dic/IP42B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP42B-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42,1%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>21,59%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>25,56%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>11,84%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>32,01%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>42,1%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 38,96</t>
+          <t>17,89; 49,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 40,68</t>
+          <t>26,54; 58,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 24,12</t>
+          <t>4,19; 23,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 50,75</t>
+          <t>10,17; 39,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 58,31</t>
+          <t>15,09; 39,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 25,62</t>
+          <t>4,54; 23,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,63; 39,56</t>
+          <t>16,37; 39,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 43,61</t>
+          <t>23,7; 43,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 20,03</t>
+          <t>6,03; 20,46</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,42%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>12,89%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>6,71%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,63</t>
+          <t>1,41; 8,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 18,6</t>
+          <t>7,51; 17,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,36</t>
+          <t>4,81; 11,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,92</t>
+          <t>2,42; 9,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 16,76</t>
+          <t>8,54; 18,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,05</t>
+          <t>3,75; 10,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,83</t>
+          <t>2,66; 7,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 15,73</t>
+          <t>9,13; 16,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,69</t>
+          <t>4,93; 9,92</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,05%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>5,72%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>7,68%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,27</t>
+          <t>3,33; 28,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,76</t>
+          <t>2,81; 23,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 17,63</t>
+          <t>2,23; 18,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 30,0</t>
+          <t>0,0; 19,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 24,59</t>
+          <t>0,0; 16,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 18,99</t>
+          <t>2,07; 17,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 16,89</t>
+          <t>2,81; 16,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 16,06</t>
+          <t>3,6; 16,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 14,17</t>
+          <t>3,55; 14,14</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,32%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>14,04%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>7,49%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,14</t>
+          <t>5,52; 13,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 18,13</t>
+          <t>11,54; 20,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,51</t>
+          <t>5,69; 12,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 14,24</t>
+          <t>4,37; 10,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,54; 20,83</t>
+          <t>10,09; 18,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,58</t>
+          <t>4,81; 10,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,01</t>
+          <t>5,83; 10,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,77</t>
+          <t>11,98; 17,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,19</t>
+          <t>5,96; 10,07</t>
         </is>
       </c>
     </row>
